--- a/content/segtimeline/script/calcs.xlsx
+++ b/content/segtimeline/script/calcs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Ad</t>
   </si>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76259AB1-5438-496F-952D-FCC1E95E1BE8}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +471,7 @@
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -487,8 +487,11 @@
       <c r="K2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -514,8 +517,12 @@
         <f>(C3-(H3*C2)) * C8</f>
         <v>2400.0000000000055</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="M3">
+        <f>C2*C8</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -530,7 +537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -550,7 +557,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -559,7 +566,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -572,7 +579,7 @@
         <v>537600</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -580,7 +587,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -588,7 +595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -596,11 +603,11 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>C11*$C$8</f>
+        <f t="shared" ref="D11:D22" si="0">C11*$C$8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -609,11 +616,11 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <f>C12*$C$8</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -622,11 +629,11 @@
         <v>597.6</v>
       </c>
       <c r="D13">
-        <f>C13*$C$8</f>
+        <f t="shared" si="0"/>
         <v>597600</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -635,11 +642,11 @@
         <v>657.6</v>
       </c>
       <c r="D14">
-        <f>C14*$C$8</f>
+        <f t="shared" si="0"/>
         <v>657600</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -648,11 +655,11 @@
         <v>1195.2</v>
       </c>
       <c r="D15">
-        <f>C15*$C$8</f>
+        <f t="shared" si="0"/>
         <v>1195200</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -661,7 +668,7 @@
         <v>1255.2</v>
       </c>
       <c r="D16">
-        <f>C16*$C$8</f>
+        <f t="shared" si="0"/>
         <v>1255200</v>
       </c>
     </row>
@@ -674,7 +681,7 @@
         <v>1792.8000000000002</v>
       </c>
       <c r="D17">
-        <f>C17*$C$8</f>
+        <f t="shared" si="0"/>
         <v>1792800.0000000002</v>
       </c>
     </row>
@@ -687,7 +694,7 @@
         <v>1852.8000000000002</v>
       </c>
       <c r="D18">
-        <f>C18*$C$8</f>
+        <f t="shared" si="0"/>
         <v>1852800.0000000002</v>
       </c>
     </row>
@@ -700,7 +707,7 @@
         <v>2390.4</v>
       </c>
       <c r="D19">
-        <f>C19*$C$8</f>
+        <f t="shared" si="0"/>
         <v>2390400</v>
       </c>
     </row>
@@ -713,7 +720,7 @@
         <v>2450.4</v>
       </c>
       <c r="D20">
-        <f>C20*$C$8</f>
+        <f t="shared" si="0"/>
         <v>2450400</v>
       </c>
     </row>
@@ -726,7 +733,7 @@
         <v>2988</v>
       </c>
       <c r="D21">
-        <f>C21*$C$8</f>
+        <f t="shared" si="0"/>
         <v>2988000</v>
       </c>
     </row>
@@ -739,7 +746,7 @@
         <v>3048</v>
       </c>
       <c r="D22">
-        <f>C22*$C$8</f>
+        <f t="shared" si="0"/>
         <v>3048000</v>
       </c>
     </row>
